--- a/Subjective_data/tlxscale.xlsx
+++ b/Subjective_data/tlxscale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,20 +593,104 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/Subjective_data/tlxscale.xlsx
+++ b/Subjective_data/tlxscale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +697,52 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/Subjective_data/tlxscale.xlsx
+++ b/Subjective_data/tlxscale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +410,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +435,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -458,8 +464,11 @@
       <c r="H2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -484,8 +493,11 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -510,8 +522,11 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -536,8 +551,11 @@
       <c r="H5" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -562,8 +580,11 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -588,8 +609,11 @@
       <c r="H7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -614,8 +638,11 @@
       <c r="H8" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -640,8 +667,11 @@
       <c r="H9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -666,8 +696,11 @@
       <c r="H10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -692,8 +725,11 @@
       <c r="H11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -718,8 +754,11 @@
       <c r="H12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -744,100 +783,379 @@
       <c r="H13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Subjective_data/tlxscale.xlsx
+++ b/Subjective_data/tlxscale.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1055,24 @@
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C23" s="1">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
@@ -1066,6 +1084,24 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
@@ -1077,6 +1113,24 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13</v>
+      </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
@@ -1088,6 +1142,24 @@
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C26" s="1">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
@@ -1099,6 +1171,24 @@
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1">
+        <v>14</v>
+      </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
@@ -1109,6 +1199,24 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>

--- a/Subjective_data/tlxscale.xlsx
+++ b/Subjective_data/tlxscale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1229,24 @@
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1">
+        <v>12</v>
+      </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
@@ -1238,7 +1256,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1249,7 +1285,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1260,9 +1314,20 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Subjective_data/tlxscale.xlsx
+++ b/Subjective_data/tlxscale.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1316,24 @@
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
@@ -1325,10 +1343,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
